--- a/_data/IMXUSDT_2h.xlsx
+++ b/_data/IMXUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1286 @@
         <v>340456.5</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>1.435</v>
+      </c>
+      <c r="C1169">
+        <v>1.455</v>
+      </c>
+      <c r="D1169">
+        <v>1.37</v>
+      </c>
+      <c r="E1169">
+        <v>1.384</v>
+      </c>
+      <c r="F1169">
+        <v>614413.05</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>1.384</v>
+      </c>
+      <c r="C1170">
+        <v>1.393</v>
+      </c>
+      <c r="D1170">
+        <v>1.325</v>
+      </c>
+      <c r="E1170">
+        <v>1.335</v>
+      </c>
+      <c r="F1170">
+        <v>698258.8</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>1.335</v>
+      </c>
+      <c r="C1171">
+        <v>1.36</v>
+      </c>
+      <c r="D1171">
+        <v>1.324</v>
+      </c>
+      <c r="E1171">
+        <v>1.352</v>
+      </c>
+      <c r="F1171">
+        <v>388242.11</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>1.351</v>
+      </c>
+      <c r="C1172">
+        <v>1.408</v>
+      </c>
+      <c r="D1172">
+        <v>1.35</v>
+      </c>
+      <c r="E1172">
+        <v>1.366</v>
+      </c>
+      <c r="F1172">
+        <v>291343.17</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>1.366</v>
+      </c>
+      <c r="C1173">
+        <v>1.426</v>
+      </c>
+      <c r="D1173">
+        <v>1.364</v>
+      </c>
+      <c r="E1173">
+        <v>1.398</v>
+      </c>
+      <c r="F1173">
+        <v>332550.67</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>1.4</v>
+      </c>
+      <c r="C1174">
+        <v>1.427</v>
+      </c>
+      <c r="D1174">
+        <v>1.395</v>
+      </c>
+      <c r="E1174">
+        <v>1.426</v>
+      </c>
+      <c r="F1174">
+        <v>157487.12</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>1.426</v>
+      </c>
+      <c r="C1175">
+        <v>1.509</v>
+      </c>
+      <c r="D1175">
+        <v>1.414</v>
+      </c>
+      <c r="E1175">
+        <v>1.494</v>
+      </c>
+      <c r="F1175">
+        <v>913033.91</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>1.494</v>
+      </c>
+      <c r="C1176">
+        <v>1.5</v>
+      </c>
+      <c r="D1176">
+        <v>1.464</v>
+      </c>
+      <c r="E1176">
+        <v>1.467</v>
+      </c>
+      <c r="F1176">
+        <v>263271.94</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>1.467</v>
+      </c>
+      <c r="C1177">
+        <v>1.48</v>
+      </c>
+      <c r="D1177">
+        <v>1.465</v>
+      </c>
+      <c r="E1177">
+        <v>1.468</v>
+      </c>
+      <c r="F1177">
+        <v>88017.06</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>1.468</v>
+      </c>
+      <c r="C1178">
+        <v>1.49</v>
+      </c>
+      <c r="D1178">
+        <v>1.457</v>
+      </c>
+      <c r="E1178">
+        <v>1.475</v>
+      </c>
+      <c r="F1178">
+        <v>363039.38</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>1.476</v>
+      </c>
+      <c r="C1179">
+        <v>1.487</v>
+      </c>
+      <c r="D1179">
+        <v>1.451</v>
+      </c>
+      <c r="E1179">
+        <v>1.455</v>
+      </c>
+      <c r="F1179">
+        <v>268251.64</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>1.454</v>
+      </c>
+      <c r="C1180">
+        <v>1.477</v>
+      </c>
+      <c r="D1180">
+        <v>1.45</v>
+      </c>
+      <c r="E1180">
+        <v>1.465</v>
+      </c>
+      <c r="F1180">
+        <v>202277.67</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>1.465</v>
+      </c>
+      <c r="C1181">
+        <v>1.465</v>
+      </c>
+      <c r="D1181">
+        <v>1.4</v>
+      </c>
+      <c r="E1181">
+        <v>1.404</v>
+      </c>
+      <c r="F1181">
+        <v>905602.39</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>1.403</v>
+      </c>
+      <c r="C1182">
+        <v>1.403</v>
+      </c>
+      <c r="D1182">
+        <v>1.366</v>
+      </c>
+      <c r="E1182">
+        <v>1.371</v>
+      </c>
+      <c r="F1182">
+        <v>378311.6</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>1.372</v>
+      </c>
+      <c r="C1183">
+        <v>1.372</v>
+      </c>
+      <c r="D1183">
+        <v>1.337</v>
+      </c>
+      <c r="E1183">
+        <v>1.344</v>
+      </c>
+      <c r="F1183">
+        <v>227071.77</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>1.343</v>
+      </c>
+      <c r="C1184">
+        <v>1.358</v>
+      </c>
+      <c r="D1184">
+        <v>1.338</v>
+      </c>
+      <c r="E1184">
+        <v>1.352</v>
+      </c>
+      <c r="F1184">
+        <v>217073.7</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>1.352</v>
+      </c>
+      <c r="C1185">
+        <v>1.368</v>
+      </c>
+      <c r="D1185">
+        <v>1.343</v>
+      </c>
+      <c r="E1185">
+        <v>1.361</v>
+      </c>
+      <c r="F1185">
+        <v>140031.81</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>1.365</v>
+      </c>
+      <c r="C1186">
+        <v>1.379</v>
+      </c>
+      <c r="D1186">
+        <v>1.36</v>
+      </c>
+      <c r="E1186">
+        <v>1.363</v>
+      </c>
+      <c r="F1186">
+        <v>295107.05</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>1.362</v>
+      </c>
+      <c r="C1187">
+        <v>1.363</v>
+      </c>
+      <c r="D1187">
+        <v>1.343</v>
+      </c>
+      <c r="E1187">
+        <v>1.344</v>
+      </c>
+      <c r="F1187">
+        <v>219387.96</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>1.344</v>
+      </c>
+      <c r="C1188">
+        <v>1.348</v>
+      </c>
+      <c r="D1188">
+        <v>1.336</v>
+      </c>
+      <c r="E1188">
+        <v>1.338</v>
+      </c>
+      <c r="F1188">
+        <v>148364.92</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>1.338</v>
+      </c>
+      <c r="C1189">
+        <v>1.349</v>
+      </c>
+      <c r="D1189">
+        <v>1.325</v>
+      </c>
+      <c r="E1189">
+        <v>1.327</v>
+      </c>
+      <c r="F1189">
+        <v>207835.56</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>1.328</v>
+      </c>
+      <c r="C1190">
+        <v>1.338</v>
+      </c>
+      <c r="D1190">
+        <v>1.324</v>
+      </c>
+      <c r="E1190">
+        <v>1.335</v>
+      </c>
+      <c r="F1190">
+        <v>229726.92</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>1.334</v>
+      </c>
+      <c r="C1191">
+        <v>1.335</v>
+      </c>
+      <c r="D1191">
+        <v>1.314</v>
+      </c>
+      <c r="E1191">
+        <v>1.317</v>
+      </c>
+      <c r="F1191">
+        <v>264602.71</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>1.317</v>
+      </c>
+      <c r="C1192">
+        <v>1.323</v>
+      </c>
+      <c r="D1192">
+        <v>1.304</v>
+      </c>
+      <c r="E1192">
+        <v>1.318</v>
+      </c>
+      <c r="F1192">
+        <v>269940.49</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>1.317</v>
+      </c>
+      <c r="C1193">
+        <v>1.319</v>
+      </c>
+      <c r="D1193">
+        <v>1.278</v>
+      </c>
+      <c r="E1193">
+        <v>1.298</v>
+      </c>
+      <c r="F1193">
+        <v>293251.7</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>1.299</v>
+      </c>
+      <c r="C1194">
+        <v>1.324</v>
+      </c>
+      <c r="D1194">
+        <v>1.276</v>
+      </c>
+      <c r="E1194">
+        <v>1.319</v>
+      </c>
+      <c r="F1194">
+        <v>324983.64</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>1.319</v>
+      </c>
+      <c r="C1195">
+        <v>1.371</v>
+      </c>
+      <c r="D1195">
+        <v>1.311</v>
+      </c>
+      <c r="E1195">
+        <v>1.315</v>
+      </c>
+      <c r="F1195">
+        <v>802923.4</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>1.315</v>
+      </c>
+      <c r="C1196">
+        <v>1.355</v>
+      </c>
+      <c r="D1196">
+        <v>1.309</v>
+      </c>
+      <c r="E1196">
+        <v>1.334</v>
+      </c>
+      <c r="F1196">
+        <v>311398.56</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>1.334</v>
+      </c>
+      <c r="C1197">
+        <v>1.346</v>
+      </c>
+      <c r="D1197">
+        <v>1.3</v>
+      </c>
+      <c r="E1197">
+        <v>1.317</v>
+      </c>
+      <c r="F1197">
+        <v>238594.99</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>1.316</v>
+      </c>
+      <c r="C1198">
+        <v>1.316</v>
+      </c>
+      <c r="D1198">
+        <v>1.257</v>
+      </c>
+      <c r="E1198">
+        <v>1.287</v>
+      </c>
+      <c r="F1198">
+        <v>867566.52</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>1.286</v>
+      </c>
+      <c r="C1199">
+        <v>1.297</v>
+      </c>
+      <c r="D1199">
+        <v>1.263</v>
+      </c>
+      <c r="E1199">
+        <v>1.272</v>
+      </c>
+      <c r="F1199">
+        <v>283269.16</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>1.272</v>
+      </c>
+      <c r="C1200">
+        <v>1.292</v>
+      </c>
+      <c r="D1200">
+        <v>1.261</v>
+      </c>
+      <c r="E1200">
+        <v>1.281</v>
+      </c>
+      <c r="F1200">
+        <v>154975.21</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>1.281</v>
+      </c>
+      <c r="C1201">
+        <v>1.282</v>
+      </c>
+      <c r="D1201">
+        <v>1.248</v>
+      </c>
+      <c r="E1201">
+        <v>1.262</v>
+      </c>
+      <c r="F1201">
+        <v>653690.59</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>1.263</v>
+      </c>
+      <c r="C1202">
+        <v>1.273</v>
+      </c>
+      <c r="D1202">
+        <v>1.243</v>
+      </c>
+      <c r="E1202">
+        <v>1.246</v>
+      </c>
+      <c r="F1202">
+        <v>274714.42</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>1.245</v>
+      </c>
+      <c r="C1203">
+        <v>1.288</v>
+      </c>
+      <c r="D1203">
+        <v>1.238</v>
+      </c>
+      <c r="E1203">
+        <v>1.285</v>
+      </c>
+      <c r="F1203">
+        <v>375849.98</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>1.284</v>
+      </c>
+      <c r="C1204">
+        <v>1.293</v>
+      </c>
+      <c r="D1204">
+        <v>1.26</v>
+      </c>
+      <c r="E1204">
+        <v>1.27</v>
+      </c>
+      <c r="F1204">
+        <v>629702.54</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>1.269</v>
+      </c>
+      <c r="C1205">
+        <v>1.278</v>
+      </c>
+      <c r="D1205">
+        <v>1.246</v>
+      </c>
+      <c r="E1205">
+        <v>1.25</v>
+      </c>
+      <c r="F1205">
+        <v>193008.65</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>1.25</v>
+      </c>
+      <c r="C1206">
+        <v>1.271</v>
+      </c>
+      <c r="D1206">
+        <v>1.236</v>
+      </c>
+      <c r="E1206">
+        <v>1.249</v>
+      </c>
+      <c r="F1206">
+        <v>258263.64</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>1.249</v>
+      </c>
+      <c r="C1207">
+        <v>1.266</v>
+      </c>
+      <c r="D1207">
+        <v>1.236</v>
+      </c>
+      <c r="E1207">
+        <v>1.264</v>
+      </c>
+      <c r="F1207">
+        <v>333901.63</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>1.263</v>
+      </c>
+      <c r="C1208">
+        <v>1.266</v>
+      </c>
+      <c r="D1208">
+        <v>1.247</v>
+      </c>
+      <c r="E1208">
+        <v>1.248</v>
+      </c>
+      <c r="F1208">
+        <v>145124.95</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>1.248</v>
+      </c>
+      <c r="C1209">
+        <v>1.257</v>
+      </c>
+      <c r="D1209">
+        <v>1.246</v>
+      </c>
+      <c r="E1209">
+        <v>1.255</v>
+      </c>
+      <c r="F1209">
+        <v>18111.08</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>1.268</v>
+      </c>
+      <c r="C1210">
+        <v>1.28</v>
+      </c>
+      <c r="D1210">
+        <v>1.266</v>
+      </c>
+      <c r="E1210">
+        <v>1.268</v>
+      </c>
+      <c r="F1210">
+        <v>290666.84</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>1.268</v>
+      </c>
+      <c r="C1211">
+        <v>1.275</v>
+      </c>
+      <c r="D1211">
+        <v>1.256</v>
+      </c>
+      <c r="E1211">
+        <v>1.27</v>
+      </c>
+      <c r="F1211">
+        <v>174719.46</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>1.27</v>
+      </c>
+      <c r="C1212">
+        <v>1.287</v>
+      </c>
+      <c r="D1212">
+        <v>1.254</v>
+      </c>
+      <c r="E1212">
+        <v>1.257</v>
+      </c>
+      <c r="F1212">
+        <v>323699.14</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>1.258</v>
+      </c>
+      <c r="C1213">
+        <v>1.264</v>
+      </c>
+      <c r="D1213">
+        <v>1.249</v>
+      </c>
+      <c r="E1213">
+        <v>1.263</v>
+      </c>
+      <c r="F1213">
+        <v>107821.78</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>1.263</v>
+      </c>
+      <c r="C1214">
+        <v>1.263</v>
+      </c>
+      <c r="D1214">
+        <v>1.244</v>
+      </c>
+      <c r="E1214">
+        <v>1.253</v>
+      </c>
+      <c r="F1214">
+        <v>111636.69</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>1.253</v>
+      </c>
+      <c r="C1215">
+        <v>1.254</v>
+      </c>
+      <c r="D1215">
+        <v>1.223</v>
+      </c>
+      <c r="E1215">
+        <v>1.225</v>
+      </c>
+      <c r="F1215">
+        <v>344852.99</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>1.225</v>
+      </c>
+      <c r="C1216">
+        <v>1.236</v>
+      </c>
+      <c r="D1216">
+        <v>1.222</v>
+      </c>
+      <c r="E1216">
+        <v>1.225</v>
+      </c>
+      <c r="F1216">
+        <v>165382.12</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>1.225</v>
+      </c>
+      <c r="C1217">
+        <v>1.236</v>
+      </c>
+      <c r="D1217">
+        <v>1.193</v>
+      </c>
+      <c r="E1217">
+        <v>1.199</v>
+      </c>
+      <c r="F1217">
+        <v>529652.6</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>1.198</v>
+      </c>
+      <c r="C1218">
+        <v>1.199</v>
+      </c>
+      <c r="D1218">
+        <v>1.171</v>
+      </c>
+      <c r="E1218">
+        <v>1.174</v>
+      </c>
+      <c r="F1218">
+        <v>535505.21</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>1.174</v>
+      </c>
+      <c r="C1219">
+        <v>1.19</v>
+      </c>
+      <c r="D1219">
+        <v>1.17</v>
+      </c>
+      <c r="E1219">
+        <v>1.18</v>
+      </c>
+      <c r="F1219">
+        <v>234686.59</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>1.181</v>
+      </c>
+      <c r="C1220">
+        <v>1.2</v>
+      </c>
+      <c r="D1220">
+        <v>1.178</v>
+      </c>
+      <c r="E1220">
+        <v>1.188</v>
+      </c>
+      <c r="F1220">
+        <v>409774.21</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>1.187</v>
+      </c>
+      <c r="C1221">
+        <v>1.193</v>
+      </c>
+      <c r="D1221">
+        <v>1.179</v>
+      </c>
+      <c r="E1221">
+        <v>1.183</v>
+      </c>
+      <c r="F1221">
+        <v>177022.72</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>1.183</v>
+      </c>
+      <c r="C1222">
+        <v>1.186</v>
+      </c>
+      <c r="D1222">
+        <v>1.169</v>
+      </c>
+      <c r="E1222">
+        <v>1.172</v>
+      </c>
+      <c r="F1222">
+        <v>187001.17</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>1.172</v>
+      </c>
+      <c r="C1223">
+        <v>1.187</v>
+      </c>
+      <c r="D1223">
+        <v>1.121</v>
+      </c>
+      <c r="E1223">
+        <v>1.162</v>
+      </c>
+      <c r="F1223">
+        <v>895197.28</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>1.161</v>
+      </c>
+      <c r="C1224">
+        <v>1.187</v>
+      </c>
+      <c r="D1224">
+        <v>1.157</v>
+      </c>
+      <c r="E1224">
+        <v>1.183</v>
+      </c>
+      <c r="F1224">
+        <v>200246.25</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>1.183</v>
+      </c>
+      <c r="C1225">
+        <v>1.19</v>
+      </c>
+      <c r="D1225">
+        <v>1.177</v>
+      </c>
+      <c r="E1225">
+        <v>1.177</v>
+      </c>
+      <c r="F1225">
+        <v>209103.31</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>1.177</v>
+      </c>
+      <c r="C1226">
+        <v>1.209</v>
+      </c>
+      <c r="D1226">
+        <v>1.177</v>
+      </c>
+      <c r="E1226">
+        <v>1.207</v>
+      </c>
+      <c r="F1226">
+        <v>576232.26</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>1.208</v>
+      </c>
+      <c r="C1227">
+        <v>1.208</v>
+      </c>
+      <c r="D1227">
+        <v>1.2</v>
+      </c>
+      <c r="E1227">
+        <v>1.208</v>
+      </c>
+      <c r="F1227">
+        <v>35556.85</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>1.216</v>
+      </c>
+      <c r="C1228">
+        <v>1.232</v>
+      </c>
+      <c r="D1228">
+        <v>1.197</v>
+      </c>
+      <c r="E1228">
+        <v>1.199</v>
+      </c>
+      <c r="F1228">
+        <v>229153.54</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>1.199</v>
+      </c>
+      <c r="C1229">
+        <v>1.219</v>
+      </c>
+      <c r="D1229">
+        <v>1.196</v>
+      </c>
+      <c r="E1229">
+        <v>1.215</v>
+      </c>
+      <c r="F1229">
+        <v>239468.67</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>1.215</v>
+      </c>
+      <c r="C1230">
+        <v>1.24</v>
+      </c>
+      <c r="D1230">
+        <v>1.203</v>
+      </c>
+      <c r="E1230">
+        <v>1.239</v>
+      </c>
+      <c r="F1230">
+        <v>399959.58</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>1.239</v>
+      </c>
+      <c r="C1231">
+        <v>1.311</v>
+      </c>
+      <c r="D1231">
+        <v>1.236</v>
+      </c>
+      <c r="E1231">
+        <v>1.243</v>
+      </c>
+      <c r="F1231">
+        <v>1621284.68</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>1.243</v>
+      </c>
+      <c r="C1232">
+        <v>1.249</v>
+      </c>
+      <c r="D1232">
+        <v>1.233</v>
+      </c>
+      <c r="E1232">
+        <v>1.238</v>
+      </c>
+      <c r="F1232">
+        <v>136020.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
